--- a/blackberry.xlsx
+++ b/blackberry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE769A-D223-41DB-BF7A-4959EB1C37C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F148D796-AD4C-45DB-B4BD-C39032B4BD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{55AFEE1C-3CAB-41BC-B8D3-3B2E9E654447}"/>
+    <workbookView xWindow="19980" yWindow="0" windowWidth="18525" windowHeight="20985" activeTab="1" xr2:uid="{55AFEE1C-3CAB-41BC-B8D3-3B2E9E654447}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Price</t>
   </si>
@@ -268,6 +268,51 @@
   </si>
   <si>
     <t>gross margin %</t>
+  </si>
+  <si>
+    <t>ppe</t>
+  </si>
+  <si>
+    <t>BB Cybersecurity</t>
+  </si>
+  <si>
+    <t>Blackberry UEM</t>
+  </si>
+  <si>
+    <t>Cylance cybersecurity</t>
+  </si>
+  <si>
+    <t>Athoc</t>
+  </si>
+  <si>
+    <t>SecuSUITE</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>QNX</t>
+  </si>
+  <si>
+    <t>Certicom</t>
+  </si>
+  <si>
+    <t>Radar</t>
+  </si>
+  <si>
+    <t>IVY</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t>IP arrangements</t>
+  </si>
+  <si>
+    <t>settlement awards</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -276,7 +321,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="168" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -339,17 +384,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A81DD05-8B41-488E-9290-A3A11532E00D}">
-  <dimension ref="B1:K30"/>
+  <dimension ref="B1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,6 +962,71 @@
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -927,10 +1040,10 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,11 +1110,20 @@
       <c r="A3" t="s">
         <v>47</v>
       </c>
+      <c r="K3">
+        <v>289</v>
+      </c>
+      <c r="L3">
+        <v>279</v>
+      </c>
       <c r="N3">
         <v>298</v>
       </c>
-      <c r="Q3">
-        <v>273</v>
+      <c r="O3">
+        <v>285</v>
+      </c>
+      <c r="P3">
+        <v>279</v>
       </c>
       <c r="R3">
         <v>280</v>
@@ -1011,16 +1133,20 @@
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="K4" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.81</v>
+      </c>
       <c r="N4" s="7">
         <v>0.81</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7">
-        <v>0.82</v>
+      <c r="O4" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.88</v>
       </c>
       <c r="R4" s="7">
         <v>0.85</v>
@@ -1032,11 +1158,9 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1046,7 +1170,7 @@
       <c r="N6">
         <v>107</v>
       </c>
-      <c r="Q6">
+      <c r="P6">
         <v>109</v>
       </c>
       <c r="R6">
@@ -1057,10 +1181,16 @@
       <c r="A7" t="s">
         <v>50</v>
       </c>
+      <c r="K7">
+        <v>90</v>
+      </c>
       <c r="N7" s="6">
         <v>0.9</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="O7">
+        <v>80</v>
+      </c>
+      <c r="P7" s="6">
         <v>0.7</v>
       </c>
       <c r="R7" s="6">
@@ -1091,6 +1221,18 @@
       <c r="G10" s="5">
         <v>378</v>
       </c>
+      <c r="K10">
+        <v>93</v>
+      </c>
+      <c r="L10">
+        <v>79</v>
+      </c>
+      <c r="O10">
+        <v>85</v>
+      </c>
+      <c r="P10">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1102,18 +1244,46 @@
       <c r="G11" s="5">
         <v>-142</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="K11">
+        <v>-37</v>
+      </c>
+      <c r="L11">
+        <v>-36</v>
+      </c>
+      <c r="O11">
+        <v>-35</v>
+      </c>
+      <c r="P11">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="11">
         <f>SUM(F10:F11)</f>
         <v>233</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="11">
         <f>SUM(G10:G11)</f>
         <v>236</v>
+      </c>
+      <c r="K12" s="10">
+        <f>SUM(K10:K11)</f>
+        <v>56</v>
+      </c>
+      <c r="L12" s="10">
+        <f>SUM(L10:L11)</f>
+        <v>43</v>
+      </c>
+      <c r="O12" s="10">
+        <f>SUM(O10:O11)</f>
+        <v>50</v>
+      </c>
+      <c r="P12" s="10">
+        <f>SUM(P10:P11)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1126,6 +1296,18 @@
       <c r="G13" s="5">
         <v>215</v>
       </c>
+      <c r="K13">
+        <v>45</v>
+      </c>
+      <c r="L13" s="12">
+        <v>49</v>
+      </c>
+      <c r="O13">
+        <v>53</v>
+      </c>
+      <c r="P13">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1137,18 +1319,46 @@
       <c r="G14" s="5">
         <v>-36</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="K14">
+        <v>-9</v>
+      </c>
+      <c r="L14">
+        <v>-8</v>
+      </c>
+      <c r="O14">
+        <v>-10</v>
+      </c>
+      <c r="P14">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="11">
         <f>SUM(F13:F14)</f>
         <v>169</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="11">
         <f>SUM(G13:G14)</f>
         <v>179</v>
+      </c>
+      <c r="K15" s="10">
+        <f>SUM(K13:K14)</f>
+        <v>36</v>
+      </c>
+      <c r="L15" s="10">
+        <f>SUM(L13:L14)</f>
+        <v>41</v>
+      </c>
+      <c r="O15" s="10">
+        <f>SUM(O13:O14)</f>
+        <v>43</v>
+      </c>
+      <c r="P15" s="10">
+        <f>SUM(P13:P14)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1161,8 +1371,20 @@
       <c r="G16" s="5">
         <v>260</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>235</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1172,21 +1394,49 @@
       <c r="G17" s="5">
         <v>-152</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="K17">
+        <v>-147</v>
+      </c>
+      <c r="L17">
+        <v>-2</v>
+      </c>
+      <c r="O17">
+        <v>-2</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="11">
         <f>SUM(F16:F17)</f>
         <v>20</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="11">
         <f>SUM(G16:G17)</f>
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K18" s="10">
+        <f>SUM(K16:K17)</f>
+        <v>88</v>
+      </c>
+      <c r="L18" s="10">
+        <f>SUM(L16:L17)</f>
+        <v>2</v>
+      </c>
+      <c r="O18" s="10">
+        <f>SUM(O16:O17)</f>
+        <v>4</v>
+      </c>
+      <c r="P18" s="10">
+        <f>SUM(P16:P17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1210,8 +1460,24 @@
         <f>G10+G13+G16</f>
         <v>853</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>K10+K13+K16</f>
+        <v>373</v>
+      </c>
+      <c r="L20">
+        <f>L10+L13+L16</f>
+        <v>132</v>
+      </c>
+      <c r="O20">
+        <f>O10+O13+O16</f>
+        <v>144</v>
+      </c>
+      <c r="P20">
+        <f>P10+P13+P16</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1235,37 +1501,69 @@
         <f>G11+G14+G17</f>
         <v>-330</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="K21">
+        <f>K11+K14+K17</f>
+        <v>-193</v>
+      </c>
+      <c r="L21">
+        <f>L11+L14+L17</f>
+        <v>-46</v>
+      </c>
+      <c r="O21">
+        <f>O11+O14+O17</f>
+        <v>-47</v>
+      </c>
+      <c r="P21">
+        <f>P11+P14+P17</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="5">
-        <f>SUM(B20:B21)</f>
+      <c r="B22" s="11">
+        <f t="shared" ref="B22:G22" si="1">SUM(B20:B21)</f>
         <v>698</v>
       </c>
-      <c r="C22" s="5">
-        <f>SUM(C20:C21)</f>
+      <c r="C22" s="11">
+        <f t="shared" si="1"/>
         <v>763</v>
       </c>
-      <c r="D22" s="5">
-        <f>SUM(D20:D21)</f>
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
         <v>643</v>
       </c>
-      <c r="E22" s="5">
-        <f>SUM(E20:E21)</f>
+      <c r="E22" s="11">
+        <f t="shared" si="1"/>
         <v>467</v>
       </c>
-      <c r="F22" s="5">
-        <f>SUM(F20:F21)</f>
+      <c r="F22" s="11">
+        <f t="shared" si="1"/>
         <v>422</v>
       </c>
-      <c r="G22" s="5">
-        <f>SUM(G20:G21)</f>
+      <c r="G22" s="11">
+        <f t="shared" si="1"/>
         <v>523</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K22" s="10">
+        <f>SUM(K20:K21)</f>
+        <v>180</v>
+      </c>
+      <c r="L22" s="10">
+        <f>SUM(L20:L21)</f>
+        <v>86</v>
+      </c>
+      <c r="O22" s="10">
+        <f>SUM(O20:O21)</f>
+        <v>97</v>
+      </c>
+      <c r="P22" s="10">
+        <f>SUM(P20:P21)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1287,8 +1585,20 @@
       <c r="G23" s="5">
         <v>-186</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>-54</v>
+      </c>
+      <c r="L23">
+        <v>-50</v>
+      </c>
+      <c r="O23">
+        <v>-42</v>
+      </c>
+      <c r="P23">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1310,8 +1620,20 @@
       <c r="G24" s="5">
         <v>-171</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>-45</v>
+      </c>
+      <c r="L24">
+        <v>-43</v>
+      </c>
+      <c r="O24">
+        <v>-38</v>
+      </c>
+      <c r="P24">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1333,8 +1655,20 @@
       <c r="G25" s="5">
         <v>-181</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>-54</v>
+      </c>
+      <c r="L25">
+        <v>-30</v>
+      </c>
+      <c r="O25">
+        <v>-40</v>
+      </c>
+      <c r="P25">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -1362,37 +1696,67 @@
         <f>-54-35-15-3</f>
         <v>-107</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="K26">
+        <v>-15</v>
+      </c>
+      <c r="L26">
+        <f>-14-1+6</f>
+        <v>-9</v>
+      </c>
+      <c r="O26">
+        <f>-12-3</f>
+        <v>-15</v>
+      </c>
+      <c r="P26">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="11">
         <f>SUM(B22:B26)</f>
         <v>60</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="11">
         <f>SUM(C22:C26)</f>
         <v>-149</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="11">
         <f>SUM(D22:D26)</f>
         <v>-1107</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="11">
         <f>SUM(E22:E26)</f>
         <v>-2</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" ref="F27:G27" si="1">SUM(F22:F26)</f>
+      <c r="F27" s="11">
+        <f t="shared" ref="F27:G27" si="2">SUM(F22:F26)</f>
         <v>-722</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="1"/>
+      <c r="G27" s="11">
+        <f t="shared" si="2"/>
         <v>-122</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K27" s="10">
+        <f>SUM(K22:K26)</f>
+        <v>12</v>
+      </c>
+      <c r="L27" s="10">
+        <f>SUM(L22:L26)</f>
+        <v>-46</v>
+      </c>
+      <c r="O27" s="10">
+        <f>SUM(O22:O26)</f>
+        <v>-38</v>
+      </c>
+      <c r="P27" s="10">
+        <f>SUM(P22:P26)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -1414,8 +1778,20 @@
       <c r="G28" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -1437,52 +1813,89 @@
       <c r="G29" s="5">
         <v>-24</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="K29">
+        <v>-3</v>
+      </c>
+      <c r="L29">
+        <v>-2</v>
+      </c>
+      <c r="O29">
+        <v>-8</v>
+      </c>
+      <c r="P29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="11">
         <f>SUM(B27:B29)</f>
         <v>93</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="11">
         <f>SUM(C27:C29)</f>
         <v>-152</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="11">
         <f>SUM(D27:D29)</f>
         <v>-1104</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="11">
         <f>SUM(E27:E29)</f>
         <v>12</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" ref="F30:G30" si="2">SUM(F27:F29)</f>
+      <c r="F30" s="11">
+        <f t="shared" ref="F30:G30" si="3">SUM(F27:F29)</f>
         <v>-731</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="2"/>
+      <c r="G30" s="11">
+        <f t="shared" si="3"/>
         <v>-127</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K30" s="10">
+        <f t="array" ref="K30">SUM(K27:K29)</f>
+        <v>12</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="array" ref="L30">SUM(L27:L29)</f>
+        <v>-41</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="array" ref="O30">SUM(O27:O29)</f>
+        <v>-41</v>
+      </c>
+      <c r="P30" s="10">
+        <f t="array" ref="P30">SUM(P27:P29)</f>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1504,8 +1917,14 @@
       <c r="G34" s="5">
         <v>-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>43</v>
+      </c>
+      <c r="Q34">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1533,8 +1952,14 @@
         <f>-7-14</f>
         <v>-21</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>-3</v>
+      </c>
+      <c r="Q35">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1543,11 +1968,11 @@
         <v>-1351</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" ref="C36:D36" si="3">SUM(C34:C35)</f>
+        <f t="shared" ref="C36:D36" si="4">SUM(C34:C35)</f>
         <v>-18</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="E36" s="5">
@@ -1555,15 +1980,23 @@
         <v>-67</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" ref="F36:G36" si="4">SUM(F34:F35)</f>
+        <f t="shared" ref="F36:G36" si="5">SUM(F34:F35)</f>
         <v>-304</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-24</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f>SUM(M34:M35)</f>
+        <v>40</v>
+      </c>
+      <c r="Q36">
+        <f>SUM(Q34:Q35)</f>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -1572,11 +2005,11 @@
         <v>0.15044247787610621</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" ref="D38:E38" si="5">D20/C20-1</f>
+        <f t="shared" ref="D38:E38" si="6">D20/C20-1</f>
         <v>-0.1413461538461539</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.19596864501679734</v>
       </c>
       <c r="F38" s="6">
@@ -1588,12 +2021,12 @@
         <v>0.30030487804878048</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1602,11 +2035,11 @@
         <v>9.3123209169054366E-2</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" ref="D40:E40" si="6">D22/C22-1</f>
+        <f t="shared" ref="D40:E40" si="7">D22/C22-1</f>
         <v>-0.15727391874180863</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.27371695178849142</v>
       </c>
       <c r="F40" s="6">
@@ -1618,7 +2051,7 @@
         <v>0.23933649289099534</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -1627,11 +2060,11 @@
         <v>0.77212389380530977</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" ref="C41:D41" si="7">C22/C20</f>
+        <f t="shared" ref="C41:D41" si="8">C22/C20</f>
         <v>0.7336538461538461</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.72004479283314671</v>
       </c>
       <c r="E41" s="6">
@@ -1639,15 +2072,15 @@
         <v>0.65041782729805009</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" ref="F41:G41" si="8">F22/F20</f>
+        <f t="shared" ref="F41:G41" si="9">F22/F20</f>
         <v>0.64329268292682928</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.61313012895662367</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1660,7 +2093,7 @@
         <v>0.44314185228604924</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -1673,7 +2106,7 @@
         <v>0.25205158264947247</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -1686,7 +2119,7 @@
         <v>0.30480656506447829</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1703,12 +2136,12 @@
         <v>0.6243386243386243</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="E46" t="e">
-        <f t="shared" ref="E46:E47" si="9">E13/E11</f>
+        <f t="shared" ref="E46:E47" si="10">E13/E11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F46" s="6">
@@ -1720,12 +2153,12 @@
         <v>0.83255813953488367</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
       <c r="E47" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F47" s="6">
